--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_15_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_15_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.6939986382888597, 4.5682923467725525]</t>
+          <t>[3.693649718670301, 4.568641266391111]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[0.7987632973091161, 1.0251843894597323]</t>
+          <t>[0.8113422468730391, 1.0126054398958093]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,23 +617,23 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.02644111963239215, 0.4262020978657537]</t>
+          <t>[-0.026139348325210143, 0.4259003265585717]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.08202893373970244</v>
+        <v>0.08163488114333051</v>
       </c>
       <c r="V2" t="n">
-        <v>0.08202893373970244</v>
+        <v>0.08163488114333051</v>
       </c>
       <c r="W2" t="n">
         <v>18.74696696696722</v>
       </c>
       <c r="X2" t="n">
-        <v>18.35183183183208</v>
+        <v>18.39573573573599</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.14210210210237</v>
+        <v>19.09819819819846</v>
       </c>
     </row>
   </sheetData>
